--- a/Analysis_Results/Descriptive_Analysis/descriptive_analysis.xlsx
+++ b/Analysis_Results/Descriptive_Analysis/descriptive_analysis.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MSc\Stat\StatSurvey_OnlinePurchasing\Script Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MSc\CS5651SI_StatSurvey_OnlinePurchasing\Analysis_Results\Descriptive_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Composition" sheetId="1" r:id="rId1"/>
     <sheet name="GenderWisePurchasingProportions" sheetId="2" r:id="rId2"/>
     <sheet name="No of Purchases" sheetId="7" r:id="rId3"/>
     <sheet name="Vendor Types" sheetId="3" r:id="rId4"/>
-    <sheet name="Devices" sheetId="4" r:id="rId5"/>
-    <sheet name="Source of Marketing" sheetId="5" r:id="rId6"/>
-    <sheet name="Satisfaction" sheetId="6" r:id="rId7"/>
+    <sheet name="Direct Purchasing from Vendor" sheetId="8" r:id="rId5"/>
+    <sheet name="Internationale-commerceplatform" sheetId="9" r:id="rId6"/>
+    <sheet name="local e-commerce platform" sheetId="10" r:id="rId7"/>
+    <sheet name="Devices" sheetId="4" r:id="rId8"/>
+    <sheet name="Source of Marketing" sheetId="5" r:id="rId9"/>
+    <sheet name="Satisfaction" sheetId="6" r:id="rId10"/>
+    <sheet name="Maximum Amount" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -411,27 +415,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>34631</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8732</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813BF314-955A-4ECA-B515-3F8C017AC723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6B517E-132E-4483-916F-75E96B0174BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -447,8 +451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="525780"/>
-          <a:ext cx="3692231" cy="2994660"/>
+          <a:off x="617220" y="723900"/>
+          <a:ext cx="4268312" cy="3329940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -459,23 +463,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8D5E29-CB14-4D0D-97CA-A89DB319635C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608FD041-C375-4D55-92D3-7798A4DFE7A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -483,8 +487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="906780" y="220980"/>
-          <a:ext cx="2758440" cy="518160"/>
+          <a:off x="594360" y="236220"/>
+          <a:ext cx="4259580" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -513,14 +517,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Have you ever done an online purchase?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>(Male)</a:t>
+            <a:t>Level of Satisfaction</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -529,15 +526,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590914</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>111044</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -545,7 +542,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165FB20D-638C-483A-B5FA-4F7D605A4D47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925143A3-1DC6-4FCF-9569-C98F57883B61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,8 +558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4861560" y="495300"/>
-          <a:ext cx="3654154" cy="2941320"/>
+          <a:off x="5478780" y="746760"/>
+          <a:ext cx="4385864" cy="3421380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,23 +570,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEA9FA5-358C-4893-AC80-1F9F33BD3E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FD3C48-561C-4360-A51D-DB9350B87405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -597,8 +594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="205740"/>
-          <a:ext cx="2712720" cy="518160"/>
+          <a:off x="5486400" y="220980"/>
+          <a:ext cx="4259580" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -627,14 +624,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Have you ever done an online purchase?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>(Female)</a:t>
+            <a:t>Level of Satisfaction - Male</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -643,23 +633,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>56857</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A12793A-D843-40EC-9AA0-D3DB26816427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F2FF14-7653-4482-A824-F414016BE78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -675,8 +665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617220" y="4259580"/>
-          <a:ext cx="3706837" cy="3002280"/>
+          <a:off x="10378440" y="685800"/>
+          <a:ext cx="4389120" cy="3406442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,23 +677,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF35886-34C4-413E-89D1-D71CDEE46D40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21800657-C6FE-4652-A86D-7A38A5884BBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -711,8 +701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="906780" y="3931920"/>
-          <a:ext cx="2758440" cy="518160"/>
+          <a:off x="10386060" y="220980"/>
+          <a:ext cx="4259580" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -740,6 +730,687 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Level of Satisfaction - Female</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138306</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BC59D7-F791-4E5B-ACEE-8BA9B5DDC56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="914400"/>
+          <a:ext cx="6234306" cy="3244780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D38C03-021E-4872-AE05-D0BCB89E046D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="441960"/>
+          <a:ext cx="6103620" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Maximum Amount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Willing to Pay</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D96172-AF9C-4B41-8874-C3B9F8B5064B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5120639"/>
+          <a:ext cx="6080760" cy="3165673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2646BC0-E582-4D66-8AE0-04D68CFD3CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4617720"/>
+          <a:ext cx="6103620" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Maximum Amount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Willing to Pay - Male</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24992</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A899C6-6966-4A67-83A6-7FDF62784360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9326880"/>
+          <a:ext cx="6120992" cy="3192780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0FC755-3653-46A1-AC11-463BD44893B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22860" y="8801100"/>
+          <a:ext cx="6103620" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Maximum Amount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Willing to Pay - Female</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34631</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813BF314-955A-4ECA-B515-3F8C017AC723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="525780"/>
+          <a:ext cx="3692231" cy="2994660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8D5E29-CB14-4D0D-97CA-A89DB319635C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="906780" y="220980"/>
+          <a:ext cx="2758440" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Have you ever done an online purchase?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>(Male)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590914</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165FB20D-638C-483A-B5FA-4F7D605A4D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4861560" y="495300"/>
+          <a:ext cx="3654154" cy="2941320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEA9FA5-358C-4893-AC80-1F9F33BD3E39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="205740"/>
+          <a:ext cx="2712720" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Have you ever done an online purchase?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>(Female)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56857</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A12793A-D843-40EC-9AA0-D3DB26816427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="4259580"/>
+          <a:ext cx="3706837" cy="3002280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF35886-34C4-413E-89D1-D71CDEE46D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="906780" y="3931920"/>
+          <a:ext cx="2758440" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -1452,23 +2123,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>339850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42B0D4A-F7D7-4458-B79F-A062587C8E0D}"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938DC8D8-1DC4-498D-8C88-FBD8723C2191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,8 +2155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463540" y="464820"/>
-          <a:ext cx="7677910" cy="3192780"/>
+          <a:off x="4282440" y="472440"/>
+          <a:ext cx="3863340" cy="3001312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,23 +2167,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F049BE-F3E6-45EA-829B-6DB3FCDA78DE}"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9D3475-88A1-4B63-9283-98E4B088DAC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,8 +2191,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5494020" y="175260"/>
-          <a:ext cx="7635240" cy="518160"/>
+          <a:off x="4579620" y="137160"/>
+          <a:ext cx="2705100" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,11 +2221,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>International E -commerce</a:t>
+            <a:t>Vendor Types</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t> Platform</a:t>
+            <a:t> - Male</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
@@ -1564,23 +2235,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>177485</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7C2C7A-AEC9-4C80-8CEB-E3ADE4AC4FF2}"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A933C6C3-EFC6-4FBA-AED8-3615D712496E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,8 +2267,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601980" y="4747260"/>
-          <a:ext cx="3733800" cy="2928305"/>
+          <a:off x="8549640" y="548639"/>
+          <a:ext cx="3749040" cy="2942595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,23 +2279,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2323026B-E8FC-4F94-88B7-9FFBB5667DCD}"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EC88DE-FA93-4B36-932F-DFE88F025346}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +2303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="807720" y="4221480"/>
+          <a:off x="8846820" y="213360"/>
           <a:ext cx="2705100" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1662,11 +2333,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Have you directly purchased</a:t>
+            <a:t>Vendor Types</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t> from vendor's site?</a:t>
+            <a:t> - Female</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
@@ -1681,23 +2352,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>42286</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD29C1E-A9A7-4B64-9925-71399646AE83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12AEEAAE-3865-405A-A046-1ED6BE5BD2C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,8 +2384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="594360" y="731519"/>
-          <a:ext cx="4282440" cy="3334127"/>
+          <a:off x="609600" y="731520"/>
+          <a:ext cx="3733800" cy="2928305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1726,22 +2397,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34FBFAF-565E-4083-B8F0-566AD31C3CEA}"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E66045-88CD-4C00-B287-C37D12B0F309}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,8 +2420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="632460" y="243840"/>
-          <a:ext cx="4229100" cy="518160"/>
+          <a:off x="624840" y="251460"/>
+          <a:ext cx="3703320" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1779,8 +2450,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Devices used for purchasing</a:t>
-          </a:r>
+            <a:t>Have you directly purchased</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> from vendor's site?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1793,23 +2469,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>173277</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355090</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEF68C7-E0A7-47C0-934D-86E7785274A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2E79CA-0D8B-45E1-BB25-7824BE1DA47B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,8 +2501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="739140"/>
-          <a:ext cx="8098077" cy="2697480"/>
+          <a:off x="601980" y="906780"/>
+          <a:ext cx="7677910" cy="3192780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,22 +2514,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D803371-0D06-46DE-9506-41B4FB2564E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA404E8-40DA-4BE2-A49E-C0A7E0B3B042}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,8 +2537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="624840" y="220980"/>
-          <a:ext cx="8077200" cy="518160"/>
+          <a:off x="617220" y="411480"/>
+          <a:ext cx="7635240" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1891,8 +2567,237 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>How do you get to know about the vendors/products?</a:t>
-          </a:r>
+            <a:t>International E -commerce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Platform</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>173660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C645EBD3-1FE5-4A7B-984F-3E2ABC7800FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="5097780"/>
+          <a:ext cx="7642860" cy="3122600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EE8BCA-E786-4869-9C40-323EA9D90E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="4602480"/>
+          <a:ext cx="7635240" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>International E -commerce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Platform - Male</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>100314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE14616-6941-467E-80A9-9A8F012F8B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9304019"/>
+          <a:ext cx="7741920" cy="3232135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2052D3-5FA6-4C26-B7C7-C0F80F0F4142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640080" y="8862060"/>
+          <a:ext cx="7635240" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>International E -commerce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Platform - Female</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1905,23 +2810,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>8732</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13076</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6B517E-132E-4483-916F-75E96B0174BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0205A31F-E8BA-43FC-83E2-C51D4813F799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,8 +2842,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617220" y="723900"/>
-          <a:ext cx="4268312" cy="3329940"/>
+          <a:off x="0" y="731520"/>
+          <a:ext cx="6109076" cy="3268980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1950,13 +2855,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -1965,7 +2870,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608FD041-C375-4D55-92D3-7798A4DFE7A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3672EEC-2AAE-4C6C-8B07-A03609934E31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,8 +2878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="594360" y="236220"/>
-          <a:ext cx="4259580" cy="518160"/>
+          <a:off x="175260" y="236220"/>
+          <a:ext cx="5935980" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2003,8 +2908,899 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Level of Satisfaction</a:t>
-          </a:r>
+            <a:t>Local E -commerce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Platform</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86206</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F5486E-E673-415F-94E2-8B840AA84502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4937760"/>
+          <a:ext cx="6182206" cy="2583180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEE3D61-30E8-4231-A6A8-4BA5C4A48AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289560" y="4434840"/>
+          <a:ext cx="5935980" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Local E -commerce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Platform - Male</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46456</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53542C7-BBD8-40A5-A715-57312A749FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8595360"/>
+          <a:ext cx="6142456" cy="2560320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C963F6A4-1D4A-4AD0-8514-A0313329624C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="137160" y="7978140"/>
+          <a:ext cx="5935980" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Local E -commerce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Platform - Female</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD29C1E-A9A7-4B64-9925-71399646AE83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="731519"/>
+          <a:ext cx="4282440" cy="3334127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34FBFAF-565E-4083-B8F0-566AD31C3CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="243840"/>
+          <a:ext cx="4229100" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Devices used for purchasing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>93732</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00467B40-6465-4CF5-8780-BE0AA0D5A87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516879" y="739140"/>
+          <a:ext cx="4330453" cy="3368040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3638EC-0C03-4977-A8F2-0A093C90BBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5539740" y="228600"/>
+          <a:ext cx="4229100" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Devices used for purchasing - Male</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>103904</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F7CCA4-1412-45B0-B2A8-4A8F339656ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10370820" y="739140"/>
+          <a:ext cx="4363484" cy="3398520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A75D77-ED85-4228-85BF-4195F5ED0BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10347960" y="205740"/>
+          <a:ext cx="4229100" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Devices used for purchasing - Female</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173277</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEF68C7-E0A7-47C0-934D-86E7785274A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="739140"/>
+          <a:ext cx="8098077" cy="2697480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D803371-0D06-46DE-9506-41B4FB2564E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="220980"/>
+          <a:ext cx="8077200" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>How do you get to know about the vendors/products?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100944</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D4C5CA-BC37-4D83-B839-92FC62898024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609599" y="4389120"/>
+          <a:ext cx="8025745" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B91856-ED49-455A-A582-48B18709CBFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="3870960"/>
+          <a:ext cx="8077200" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>How do you get to know about the vendors/products? -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Male</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45807</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25B814C-25D6-4FB5-A439-3DED9E3DA264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8046720"/>
+          <a:ext cx="7970607" cy="2651760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E39D89-D284-43CE-A1F8-2E8989C59CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7498080"/>
+          <a:ext cx="7970520" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>How do you get to know about the vendors/products? -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Female</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2312,12 +4108,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2358,7 +4184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V8" sqref="U8:V8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2371,8 +4199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2387,7 +4215,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2401,8 +4229,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Analysis_Results/Descriptive_Analysis/descriptive_analysis.xlsx
+++ b/Analysis_Results/Descriptive_Analysis/descriptive_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Composition" sheetId="1" r:id="rId1"/>
@@ -4108,7 +4108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4139,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
@@ -4154,7 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -4169,7 +4169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -4184,7 +4184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V8" sqref="U8:V8"/>
     </sheetView>
   </sheetViews>
@@ -4229,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -4259,7 +4259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>

--- a/Analysis_Results/Descriptive_Analysis/descriptive_analysis.xlsx
+++ b/Analysis_Results/Descriptive_Analysis/descriptive_analysis.xlsx
@@ -1563,16 +1563,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>201930</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>168797</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>24017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1595,7 +1595,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="533400"/>
+          <a:off x="11010900" y="4777740"/>
           <a:ext cx="4469130" cy="3475877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1605,25 +1605,69 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201997</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CF7053-2A34-4AF5-81B7-A976B5F434B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6095999" y="548912"/>
+          <a:ext cx="5078798" cy="3527788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F118F0-C4AB-4601-96C8-5AF128DCBC01}"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD64650-6D91-4944-BAE3-EDF134393DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,8 +1675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1005840" y="68580"/>
-          <a:ext cx="4000500" cy="518160"/>
+          <a:off x="6576060" y="91440"/>
+          <a:ext cx="3604260" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,7 +1709,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t> of Items Purchased (Both Male and Female)</a:t>
+            <a:t> of Items Purchased (Male Vs Female)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
@@ -1675,23 +1719,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>201997</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169424</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CF7053-2A34-4AF5-81B7-A976B5F434B2}"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A245FB-612D-4E21-B38A-64E7BC6173B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,15 +1744,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6095999" y="548912"/>
-          <a:ext cx="5078798" cy="3527788"/>
+          <a:off x="594360" y="4777740"/>
+          <a:ext cx="4451864" cy="3467100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1719,23 +1763,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD64650-6D91-4944-BAE3-EDF134393DFF}"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1356B3F1-8A47-4D91-A3DC-5DB8B6D7BA92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,8 +1787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6576060" y="91440"/>
-          <a:ext cx="3604260" cy="518160"/>
+          <a:off x="975360" y="4312920"/>
+          <a:ext cx="4000500" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,7 +1821,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t> of Items Purchased (Male Vs Female)</a:t>
+            <a:t> of Items Purchased (Male)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
@@ -1787,23 +1831,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>169424</xdr:colOff>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>6126</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A245FB-612D-4E21-B38A-64E7BC6173B7}"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABD9289-AC20-4728-87A1-A65F488E16E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,15 +1856,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="594360" y="4777740"/>
-          <a:ext cx="4451864" cy="3467100"/>
+          <a:off x="6103620" y="4785360"/>
+          <a:ext cx="4465320" cy="3450366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,23 +1875,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1356B3F1-8A47-4D91-A3DC-5DB8B6D7BA92}"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CE0170-BF8E-4CD7-AE3D-EFEA3C081B9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1899,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="975360" y="4312920"/>
+          <a:off x="6499860" y="4305300"/>
           <a:ext cx="4000500" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1889,7 +1933,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t> of Items Purchased (Male)</a:t>
+            <a:t> of Items Purchased (Female)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
@@ -1899,23 +1943,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>6126</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>394743</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABD9289-AC20-4728-87A1-A65F488E16E1}"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D16D3CF-0410-46D8-A48B-7D42DB1D483B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,15 +1968,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6103620" y="4785360"/>
-          <a:ext cx="4465320" cy="3450366"/>
+          <a:off x="434340" y="320040"/>
+          <a:ext cx="4837203" cy="3725288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1943,23 +1987,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CE0170-BF8E-4CD7-AE3D-EFEA3C081B9B}"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0451B86-BCAB-49CA-A85F-AA2E1520064B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,8 +2011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6499860" y="4305300"/>
-          <a:ext cx="4000500" cy="518160"/>
+          <a:off x="929640" y="76200"/>
+          <a:ext cx="3642360" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2001,7 +2045,75 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t> of Items Purchased (Female)</a:t>
+            <a:t> of Items Purchased (Both Male and Female)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34804034-4000-4719-8A93-2592645476C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11407140" y="4312920"/>
+          <a:ext cx="3992880" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>No.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> of Items Purchased (Both Male and Female)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
@@ -4154,7 +4266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -4169,8 +4281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4184,9 +4296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="U8:V8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -4200,7 +4310,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
